--- a/rank_analysis/2-4-analysis.xlsx
+++ b/rank_analysis/2-4-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>344.7</t>
+          <t>142.9</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>289.75</t>
+          <t>176.65</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>433.46</t>
+          <t>228.88</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>494.02</t>
+          <t>228.21</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1185.574</t>
+          <t>234.436</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>981.943</t>
+          <t>214.425</t>
         </is>
       </c>
     </row>
